--- a/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>CREG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>700</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -813,14 +819,17 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,14 +866,17 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,37 +985,40 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>28400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1007,14 +1026,17 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>58200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-1500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>-2000</v>
       </c>
       <c r="N17" s="3">
         <v>-2000</v>
       </c>
       <c r="O17" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P17" s="3">
         <v>-600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-9300</v>
       </c>
       <c r="E18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-57300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>2000</v>
       </c>
       <c r="N18" s="3">
         <v>2000</v>
       </c>
       <c r="O18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,22 +1210,23 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>500</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1205,7 +1238,7 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1217,174 +1250,186 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-57200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1400</v>
       </c>
       <c r="N22" s="3">
         <v>1400</v>
       </c>
       <c r="O22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P22" s="3">
         <v>2100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-61900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>14700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>400</v>
       </c>
       <c r="M24" s="3">
         <v>400</v>
@@ -1393,13 +1438,16 @@
         <v>400</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-64800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>300</v>
       </c>
       <c r="N26" s="3">
         <v>300</v>
       </c>
       <c r="O26" s="3">
+        <v>300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-61900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>400</v>
       </c>
       <c r="O27" s="3">
+        <v>400</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,12 +1660,12 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3">
         <v>7600</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,22 +1772,25 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1733,7 +1802,7 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1745,57 +1814,63 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-61900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9700</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>400</v>
       </c>
       <c r="O33" s="3">
+        <v>400</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-61900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9700</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>400</v>
       </c>
       <c r="O35" s="3">
+        <v>400</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E41" s="3">
         <v>50800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>57100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>53200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>51100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>53200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>47000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>47100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>47800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2025,82 +2114,88 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>10300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>12200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>12600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E43" s="3">
         <v>49900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>52200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>55900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>22700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>29100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>29600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,7 +2250,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2164,163 +2262,175 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E46" s="3">
         <v>100800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>103800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>113000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>75900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>88100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>92600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>95900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>90900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>88800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>83400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>79400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>75600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E47" s="3">
         <v>8200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>39400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>42700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>46700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>101200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>101600</v>
-      </c>
-      <c r="M47" s="3">
-        <v>101400</v>
       </c>
       <c r="N47" s="3">
         <v>101400</v>
       </c>
       <c r="O47" s="3">
+        <v>101400</v>
+      </c>
+      <c r="P47" s="3">
         <v>102400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E48" s="3">
         <v>51000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>52500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>53600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>70100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>97300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>95600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>99800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>95200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>92900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>90200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>87800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>86500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2477,8 +2596,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>123800</v>
+      </c>
+      <c r="E54" s="3">
         <v>160000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>167400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>178000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>171400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>224800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>231000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>242400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>287300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>283200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>274900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>268500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>264500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>277500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2631,172 +2761,184 @@
         <v>2200</v>
       </c>
       <c r="F57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3200</v>
       </c>
       <c r="K57" s="3">
         <v>3200</v>
       </c>
       <c r="L57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E58" s="3">
         <v>46900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>48300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>49300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>48400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>48300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>50200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>52800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>50800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>50000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>48700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>48400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>48300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E59" s="3">
         <v>27000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E60" s="3">
         <v>76100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>76400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>81700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>76700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>72600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>70100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>70900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>66300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>61900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>57700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>55300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>52900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,19 +2946,19 @@
         <v>2300</v>
       </c>
       <c r="E61" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="F61" s="3">
         <v>2500</v>
       </c>
       <c r="G61" s="3">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="H61" s="3">
         <v>1000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2828,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>300</v>
@@ -2839,52 +2981,58 @@
       <c r="P61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E62" s="3">
         <v>7300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>9900</v>
       </c>
       <c r="P62" s="3">
         <v>9900</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E66" s="3">
         <v>85600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>86600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>91700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>84700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>81400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>79000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>80600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>82500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>65500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>41300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>42700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>91300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>101000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>101100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>100700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>100300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E76" s="3">
         <v>74400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>80800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>86300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>86700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>143300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>152000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>161800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>204800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>211200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>206900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>203000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>201600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>210600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-61900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9700</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>400</v>
       </c>
       <c r="O81" s="3">
+        <v>400</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,22 +3825,23 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E89" s="3">
         <v>900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4100,14 +4329,14 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4128,10 +4357,13 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,29 +4566,32 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-21800</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>5300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4357,103 +4602,112 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-600</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-100</v>
       </c>
       <c r="O100" s="3">
         <v>-100</v>
       </c>
       <c r="P100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>CREG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,90 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>700</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -749,26 +757,26 @@
         <v>700</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -822,14 +836,20 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,14 +889,20 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>28400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>10000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>58200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>-100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>-1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>-600</v>
       </c>
       <c r="Q17" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S17" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-57300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1100</v>
       </c>
       <c r="M18" s="3">
         <v>1500</v>
       </c>
       <c r="N18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P18" s="3">
         <v>2000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>600</v>
       </c>
       <c r="Q18" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>600</v>
+      </c>
+      <c r="S18" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,28 +1277,30 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1241,10 +1309,10 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1253,13 +1321,19 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1270,184 +1344,208 @@
         <v>4</v>
       </c>
       <c r="F21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4800</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-57200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1900</v>
       </c>
       <c r="H22" s="3">
         <v>4700</v>
       </c>
       <c r="I22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-9500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-61900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>14700</v>
-      </c>
-      <c r="M24" s="3">
-        <v>400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>400</v>
       </c>
       <c r="O24" s="3">
         <v>400</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q24" s="3">
+        <v>400</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-7200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-64800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-17400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-61900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-17300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,16 +1750,22 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>4</v>
@@ -1663,15 +1785,15 @@
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
         <v>7600</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,28 +1909,34 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -1805,10 +1945,10 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1817,60 +1957,72 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-61900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-9700</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-61900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-9700</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F41" s="3">
         <v>16200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>50800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>51500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>57100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>53200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>50900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>51100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>53200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>49800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>48300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>47000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>47100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>47800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2117,85 +2297,97 @@
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>10300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>12200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>12600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>13100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>13400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>12600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>11000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>9400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>40100</v>
+      </c>
+      <c r="F43" s="3">
         <v>48300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>49900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>52200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>55900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>22700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>26800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>29100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>29600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>27300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>26800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>23700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>20900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>17800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2253,10 +2451,10 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2265,172 +2463,196 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>95100</v>
+      </c>
+      <c r="F46" s="3">
         <v>64600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>100800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>103800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>113000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>75900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>88100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>92600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>95900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>90900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>88800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>83400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>79400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>75600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>8300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>8200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>11100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>11400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>25500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>39400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>42700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>46700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>101200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>101600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>101400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>101400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>102400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>26700</v>
+      </c>
+      <c r="F48" s="3">
         <v>50900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>51000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>52500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>53600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>70100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>97300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>95600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>99800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>95200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>92900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>90200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>87800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>86500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2599,11 +2839,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>121200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>121800</v>
+      </c>
+      <c r="F54" s="3">
         <v>123800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>160000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>167400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>178000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>171400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>224800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>231000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>242400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>287300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>283200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>274900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>268500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>264500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>277500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2764,208 +3026,232 @@
         <v>2200</v>
       </c>
       <c r="G57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>6400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F58" s="3">
         <v>20500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>46900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>48300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>49300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>48400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>48300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>50200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>52800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>50800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>50000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>48700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>48400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>48300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F59" s="3">
         <v>13600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>27000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>25900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>26100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>22800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>17900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>16300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>14900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>12200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="F60" s="3">
         <v>36300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>76100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>76400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>81700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>76700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>72600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>70100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>70900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>66300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>61900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>57700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>55300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>52900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
         <v>2300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2973,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>300</v>
@@ -2984,55 +3270,67 @@
       <c r="Q61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>300</v>
+      </c>
+      <c r="S61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F62" s="3">
         <v>6700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>7300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>7700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>7500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>10500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>8600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>9600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>10200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>16700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>10300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>10100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>9900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>44600</v>
+      </c>
+      <c r="F66" s="3">
         <v>45200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>85600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>86600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>91700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>84700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>81400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>79000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>80600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>82500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>72000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>68000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>65500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>62900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-31900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-34500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-30400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-25100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-23100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>38800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>41300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>42700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>91300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>101000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>101100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>100700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>100300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>77200</v>
+      </c>
+      <c r="F76" s="3">
         <v>78600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>74400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>80800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>86300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>86700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>143300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>152000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>161800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>204800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>211200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>206900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>203000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>201600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>210600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-61900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-9700</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3846,8 +4244,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>39700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-14600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>9100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,16 +4769,22 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4332,17 +4792,17 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4360,10 +4820,16 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,35 +5055,41 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
         <v>-21800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>5300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4605,109 +5097,127 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-2800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>900</v>
-      </c>
-      <c r="M101" s="3">
-        <v>1000</v>
       </c>
       <c r="N101" s="3">
         <v>900</v>
       </c>
       <c r="O101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P101" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>38800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-37000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>7100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,32 +758,32 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -842,14 +849,17 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,14 +905,17 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,46 +1045,49 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
       </c>
       <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>28400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>-1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>58200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>-2000</v>
       </c>
       <c r="Q17" s="3">
         <v>-2000</v>
       </c>
       <c r="R17" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S17" s="3">
         <v>-600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-57300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>2000</v>
       </c>
       <c r="Q18" s="3">
         <v>2000</v>
       </c>
       <c r="R18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S18" s="3">
         <v>600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1315,7 +1349,7 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1327,13 +1361,16 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1343,50 +1380,53 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-8800</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4800</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-57200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,105 +1434,111 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1400</v>
       </c>
       <c r="Q22" s="3">
         <v>1400</v>
       </c>
       <c r="R22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S22" s="3">
         <v>2100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-61900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1503,34 +1549,34 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>14700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>400</v>
       </c>
       <c r="P24" s="3">
         <v>400</v>
@@ -1539,13 +1585,16 @@
         <v>400</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-64800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>300</v>
       </c>
       <c r="Q26" s="3">
         <v>300</v>
       </c>
       <c r="R26" s="3">
+        <v>300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-61900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>400</v>
       </c>
       <c r="R27" s="3">
+        <v>400</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,19 +1814,22 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>4</v>
@@ -1791,12 +1852,12 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
         <v>7600</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1951,7 +2021,7 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1963,66 +2033,72 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-61900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9700</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>400</v>
       </c>
       <c r="R33" s="3">
+        <v>400</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-61900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9700</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>400</v>
       </c>
       <c r="R35" s="3">
+        <v>400</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,167 +2313,177 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E41" s="3">
         <v>62700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>55000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>51500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>57100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>53200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>51100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>53200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>47000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>47100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>47800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>10300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E43" s="3">
         <v>31800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>49900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>52200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>55900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>22700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>29100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>29600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>27300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>23700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>17800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2457,7 +2556,7 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2469,84 +2568,90 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E46" s="3">
         <v>94600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>95100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>64600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>103800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>113000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>75900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>88100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>92600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>95900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>90900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>88800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>83400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>79400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>75600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2557,102 +2662,108 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>8300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>25500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>39400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>42700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>46700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>101200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>101600</v>
-      </c>
-      <c r="P47" s="3">
-        <v>101400</v>
       </c>
       <c r="Q47" s="3">
         <v>101400</v>
       </c>
       <c r="R47" s="3">
+        <v>101400</v>
+      </c>
+      <c r="S47" s="3">
         <v>102400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26700</v>
+        <v>27700</v>
       </c>
       <c r="E48" s="3">
         <v>26700</v>
       </c>
       <c r="F48" s="3">
+        <v>26700</v>
+      </c>
+      <c r="G48" s="3">
         <v>50900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>51000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>52500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>53600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>70100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>97300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>95600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>99800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>95200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>92900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>90200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>87800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>86500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2845,8 +2965,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>126400</v>
+      </c>
+      <c r="E54" s="3">
         <v>121200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>121800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>123800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>160000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>167400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>178000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>171400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>224800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>231000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>242400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>287300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>283200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>274900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>268500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>264500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>277500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,13 +3141,14 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E57" s="3">
         <v>2200</v>
@@ -3032,199 +3163,211 @@
         <v>2200</v>
       </c>
       <c r="I57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3200</v>
       </c>
       <c r="N57" s="3">
         <v>3200</v>
       </c>
       <c r="O57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E58" s="3">
         <v>21100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>21300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>46900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>48300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>49300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>48400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>50200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>52800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>50800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>50000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>48700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>48400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>48300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E59" s="3">
         <v>12400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E60" s="3">
         <v>35700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>76100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>76400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>81700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>76700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>72600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>70100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>70900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>66300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>61900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>57700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>55300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>52900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3235,25 +3378,25 @@
         <v>700</v>
       </c>
       <c r="F61" s="3">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="G61" s="3">
         <v>2300</v>
       </c>
       <c r="H61" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="I61" s="3">
         <v>2500</v>
       </c>
       <c r="J61" s="3">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="K61" s="3">
         <v>1000</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3265,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>300</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,49 +3434,52 @@
         <v>5800</v>
       </c>
       <c r="F62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G62" s="3">
         <v>6700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>9900</v>
       </c>
       <c r="S62" s="3">
         <v>9900</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E66" s="3">
         <v>42200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>44600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>85600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>86600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>91700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>84700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>81400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>79000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>80600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>82500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>72000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>65500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>62900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>41300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>42700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>91300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>101000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>101100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>100700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>100300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E76" s="3">
         <v>79100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>77200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>78600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>74400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>80800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>86300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>86700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>143300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>152000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>161800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>204800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>211200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>206900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>203000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>201600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>210600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-61900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9700</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>400</v>
       </c>
       <c r="R81" s="3">
+        <v>400</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4235,20 +4434,20 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>7300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>39700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,19 +5002,22 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4798,14 +5028,14 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4826,10 +5056,13 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,38 +5304,41 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>500</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
         <v>-21800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>5300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5103,121 +5349,130 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-100</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
       </c>
       <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T100" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E102" s="3">
         <v>7600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>38800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-37000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>CREG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -770,26 +777,26 @@
         <v>700</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>700</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,14 +865,20 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,14 +927,20 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1081,76 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>28400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1230,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>-1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>10000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>58200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>-100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>-2000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>-600</v>
       </c>
       <c r="T17" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V17" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-9300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-57300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1100</v>
       </c>
       <c r="P18" s="3">
         <v>1500</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S18" s="3">
         <v>2000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>600</v>
       </c>
       <c r="T18" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>600</v>
+      </c>
+      <c r="V18" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,28 +1389,28 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
@@ -1352,10 +1419,10 @@
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1364,13 +1431,19 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1383,162 +1456,180 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-8800</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-57200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>3000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1900</v>
       </c>
       <c r="K22" s="3">
         <v>4700</v>
       </c>
       <c r="L22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>2100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-11800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-9500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-61900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1552,49 +1643,55 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>14700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>400</v>
       </c>
       <c r="R24" s="3">
         <v>400</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T24" s="3">
+        <v>400</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-64800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-17400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-8800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-61900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-17300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,31 +1932,37 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1855,15 +1976,15 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
         <v>7600</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,28 +2133,28 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
@@ -2024,10 +2163,10 @@
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2036,69 +2175,81 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-61900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-9700</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-61900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-9700</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>144100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>107800</v>
+      </c>
+      <c r="F41" s="3">
         <v>73800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>62700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>55000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>16200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>50800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>51500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>57100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>53200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>50900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>51100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>53200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>49800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>48300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>47000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>47100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>47800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2400,90 +2579,102 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>10300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>12200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>12600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>13100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>13400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>12600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>11000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>9400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>24900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>31800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>40100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>48300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>49900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>52200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>55900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>22700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>26800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>29100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>29600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>27300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>26800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>23700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>20900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>17800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2559,10 +2756,10 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2571,87 +2768,99 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>144600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>108200</v>
+      </c>
+      <c r="F46" s="3">
         <v>98700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>94600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>95100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>64600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>100800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>103800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>113000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>75900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>88100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>92600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>95900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>90900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>88800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>83400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>79400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>75600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2665,105 +2874,117 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>8300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>8200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>11100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>11400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>25500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>39400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>42700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>46700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>101200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>101600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>101400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>101400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>102400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F48" s="3">
         <v>27700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>26700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>26700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>50900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>51000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>52500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>53600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>70100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>97300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>95600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>99800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>95200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>92900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>90200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>87800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>86500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2968,11 +3207,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>173500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>137100</v>
+      </c>
+      <c r="F54" s="3">
         <v>126400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>121200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>121800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>123800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>160000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>167400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>178000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>171400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>224800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>231000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>242400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>287300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>283200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>274900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>268500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>264500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>277500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,19 +3401,21 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>2300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2200</v>
       </c>
       <c r="G57" s="3">
         <v>2200</v>
@@ -3166,244 +3427,268 @@
         <v>2200</v>
       </c>
       <c r="J57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>6400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F58" s="3">
         <v>21600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>21100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>21300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>20500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>46900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>48300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>49300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>48400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>48300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>50200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>52800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>50800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>50000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>48700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>48400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>48300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F59" s="3">
         <v>13100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>14600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>13600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>27000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>25900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>26100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>22800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>17900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>16300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>14900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>12200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>9200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>6800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F60" s="3">
         <v>36900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>35700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>38100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>36300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>76100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>76400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>81700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>76700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>72600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>70100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>70900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>66300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>61900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>57700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>55300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>52900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F61" s="3">
         <v>700</v>
       </c>
       <c r="G61" s="3">
+        <v>700</v>
+      </c>
+      <c r="H61" s="3">
+        <v>700</v>
+      </c>
+      <c r="I61" s="3">
         <v>2300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3411,10 +3696,10 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>300</v>
@@ -3422,64 +3707,76 @@
       <c r="T61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>300</v>
+      </c>
+      <c r="V61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="E62" s="3">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="F62" s="3">
         <v>5800</v>
       </c>
       <c r="G62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I62" s="3">
         <v>6700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>7300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>7700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>7500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>10500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>8600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>9600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>10200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>16700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>10500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>10300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>10100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>9900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F66" s="3">
         <v>43500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>42200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>44600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>45200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>85600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>86600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>91700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>84700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>81400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>79000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>80600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>82500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>72000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>68000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>65500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>62900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-32200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-32500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-31900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-34500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-30400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-25100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-23100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>38800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>41300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>42700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>91300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>101000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>101100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>100700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>100300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>92200</v>
+      </c>
+      <c r="F76" s="3">
         <v>83000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>79100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>77200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>78600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>74400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>80800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>86300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>86700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>143300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>152000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>161800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>204800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>211200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>206900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>203000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>201600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>210600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-61900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-9700</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,37 +4818,39 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F89" s="3">
         <v>8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>7300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>39700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-14600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>9100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,25 +5458,31 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5031,17 +5490,17 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5059,10 +5518,16 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,44 +5792,50 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
         <v>-21800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5352,127 +5843,145 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F101" s="3">
         <v>2400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>900</v>
-      </c>
-      <c r="P101" s="3">
-        <v>1000</v>
       </c>
       <c r="Q101" s="3">
         <v>900</v>
       </c>
       <c r="R101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S101" s="3">
+        <v>900</v>
+      </c>
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F102" s="3">
         <v>11100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>7600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>38800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-37000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>7100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>CREG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,32 +778,32 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1400</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -871,14 +878,17 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,14 +943,17 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,55 +1104,58 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
       <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>28400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1258,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>58200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-1500</v>
-      </c>
-      <c r="S17" s="3">
-        <v>-2000</v>
       </c>
       <c r="T17" s="3">
         <v>-2000</v>
       </c>
       <c r="U17" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="V17" s="3">
         <v>-600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-57300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1500</v>
-      </c>
-      <c r="S18" s="3">
-        <v>2000</v>
       </c>
       <c r="T18" s="3">
         <v>2000</v>
       </c>
       <c r="U18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V18" s="3">
         <v>600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1392,7 +1426,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1401,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1425,7 +1459,7 @@
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1437,13 +1471,16 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1462,179 +1499,188 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-8800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-4800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-57200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1400</v>
       </c>
       <c r="T22" s="3">
         <v>1400</v>
       </c>
       <c r="U22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V22" s="3">
         <v>2100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-61900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1649,34 +1695,34 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>14700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>400</v>
       </c>
       <c r="S24" s="3">
         <v>400</v>
@@ -1685,13 +1731,16 @@
         <v>400</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-64800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>300</v>
       </c>
       <c r="T26" s="3">
         <v>300</v>
       </c>
       <c r="U26" s="3">
+        <v>300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-61900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>400</v>
       </c>
       <c r="U27" s="3">
+        <v>400</v>
+      </c>
+      <c r="V27" s="3">
         <v>-1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -1982,12 +2043,12 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
         <v>7600</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2136,7 +2206,7 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2145,19 +2215,19 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
@@ -2169,7 +2239,7 @@
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2181,75 +2251,81 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-61900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9700</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>400</v>
       </c>
       <c r="U33" s="3">
+        <v>400</v>
+      </c>
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-61900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9700</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>400</v>
       </c>
       <c r="U35" s="3">
+        <v>400</v>
+      </c>
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E41" s="3">
         <v>144100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>107800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>73800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>62700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>55000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>50800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>51500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>57100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>53200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>50900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>51100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>53200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>49800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>48300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>47000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>47100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>47800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2585,96 +2675,102 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>10300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>12600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>9400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>31800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>40100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>48300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>49900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>52200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>55900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>22700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>29100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>27300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>26800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>23700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>17800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,13 +2831,16 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2762,7 +2861,7 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2774,93 +2873,99 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>151200</v>
+      </c>
+      <c r="E46" s="3">
         <v>144600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>108200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>98700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>94600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>95100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>64600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>103800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>113000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>75900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>88100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>92600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>95900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>90900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>88800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>83400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>79400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>75600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2880,111 +2985,117 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>8300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>39400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>46700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>101200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>101600</v>
-      </c>
-      <c r="S47" s="3">
-        <v>101400</v>
       </c>
       <c r="T47" s="3">
         <v>101400</v>
       </c>
       <c r="U47" s="3">
+        <v>101400</v>
+      </c>
+      <c r="V47" s="3">
         <v>102400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28900</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>28900</v>
       </c>
       <c r="F48" s="3">
+        <v>28900</v>
+      </c>
+      <c r="G48" s="3">
         <v>27700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>26700</v>
       </c>
       <c r="H48" s="3">
         <v>26700</v>
       </c>
       <c r="I48" s="3">
+        <v>26700</v>
+      </c>
+      <c r="J48" s="3">
         <v>50900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>51000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>52500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>53600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>70100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>97300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>95600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>99800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>95200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>92900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>90200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>87800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>86500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3213,8 +3333,8 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>151400</v>
+      </c>
+      <c r="E54" s="3">
         <v>173500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>137100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>126400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>121200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>121800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>123800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>160000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>167400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>178000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>171400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>224800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>231000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>242400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>287300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>283200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>274900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>268500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>264500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>277500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3415,10 +3546,10 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>2300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2200</v>
       </c>
       <c r="H57" s="3">
         <v>2200</v>
@@ -3433,226 +3564,238 @@
         <v>2200</v>
       </c>
       <c r="L57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>3200</v>
       </c>
       <c r="Q57" s="3">
         <v>3200</v>
       </c>
       <c r="R57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S57" s="3">
         <v>2700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E58" s="3">
         <v>24800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>46900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>49300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>48400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>48300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>50200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>52800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>50800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>50000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>48700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>48400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>48300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>13700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E60" s="3">
         <v>38600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>39000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>35700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>76100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>76400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>81700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>76700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>72600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>70100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>70900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>66300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>61900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>57700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>55300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>52900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,7 +3806,7 @@
         <v>800</v>
       </c>
       <c r="F61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G61" s="3">
         <v>700</v>
@@ -3672,25 +3815,25 @@
         <v>700</v>
       </c>
       <c r="I61" s="3">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="J61" s="3">
         <v>2300</v>
       </c>
       <c r="K61" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="L61" s="3">
         <v>2500</v>
       </c>
       <c r="M61" s="3">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="N61" s="3">
         <v>1000</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3702,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>300</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3725,7 +3871,7 @@
         <v>5200</v>
       </c>
       <c r="F62" s="3">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="G62" s="3">
         <v>5800</v>
@@ -3734,49 +3880,52 @@
         <v>5800</v>
       </c>
       <c r="I62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J62" s="3">
         <v>6700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10100</v>
-      </c>
-      <c r="U62" s="3">
-        <v>9900</v>
       </c>
       <c r="V62" s="3">
         <v>9900</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E66" s="3">
         <v>44600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>45000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>42200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>44600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>85600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>91700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>84700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>81400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>79000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>80600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>82500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>72000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>65500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>62900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-28100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-27900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>38800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>41300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>42700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>91300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>101000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>101100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>100700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>100300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E76" s="3">
         <v>129000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>92200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>83000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>79100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>77200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>78600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>74400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>80800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>86300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>86700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>143300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>152000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>161800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>204800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>211200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>206900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>203000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>201600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>210600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-61900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9700</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>400</v>
       </c>
       <c r="U81" s="3">
+        <v>400</v>
+      </c>
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4849,11 +5048,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>27000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>39700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,28 +5691,31 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5496,14 +5726,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5524,10 +5754,13 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,47 +6041,50 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E100" s="3">
         <v>38300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
         <v>-21800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>5300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5849,139 +6095,148 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-600</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-100</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
       </c>
       <c r="V100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W100" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E102" s="3">
         <v>36300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>34000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-37000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>CREG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,32 +785,32 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -881,14 +888,17 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,14 +956,17 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,58 +1124,61 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-3200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
       </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>28400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>-3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>58200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-1500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>-2000</v>
       </c>
       <c r="U17" s="3">
         <v>-2000</v>
       </c>
       <c r="V17" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="W17" s="3">
         <v>-600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-57300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1500</v>
-      </c>
-      <c r="T18" s="3">
-        <v>2000</v>
       </c>
       <c r="U18" s="3">
         <v>2000</v>
       </c>
       <c r="V18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W18" s="3">
         <v>600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,13 +1457,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1438,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
@@ -1462,7 +1496,7 @@
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1474,13 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1502,189 +1539,198 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-8800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-4800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-57200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1300</v>
-      </c>
-      <c r="T22" s="3">
-        <v>1400</v>
       </c>
       <c r="U22" s="3">
         <v>1400</v>
       </c>
       <c r="V22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W22" s="3">
         <v>2100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-61900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1698,34 +1744,34 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>14700</v>
-      </c>
-      <c r="S24" s="3">
-        <v>400</v>
       </c>
       <c r="T24" s="3">
         <v>400</v>
@@ -1734,13 +1780,16 @@
         <v>400</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-64800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>300</v>
       </c>
       <c r="U26" s="3">
         <v>300</v>
       </c>
       <c r="V26" s="3">
+        <v>300</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-61900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>400</v>
       </c>
       <c r="V27" s="3">
+        <v>400</v>
+      </c>
+      <c r="W27" s="3">
         <v>-1200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -2046,12 +2107,12 @@
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
         <v>7600</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,13 +2273,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2218,19 +2288,19 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
@@ -2242,7 +2312,7 @@
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2254,78 +2324,84 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-61900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9700</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>400</v>
       </c>
       <c r="V33" s="3">
+        <v>400</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-61900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9700</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>400</v>
       </c>
       <c r="V35" s="3">
+        <v>400</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>149500</v>
+      </c>
+      <c r="E41" s="3">
         <v>151000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>107800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>73800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>62700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>55000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>51500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>57100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>53200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>50900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>51100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>53200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>49800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>48300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>47000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>47100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>47800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2678,99 +2768,105 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>10300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>12600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>9400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>31800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>40100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>48300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>49900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>52200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>55900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>29600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>26800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>23700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>20900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>17800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2864,7 +2963,7 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2876,96 +2975,102 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E46" s="3">
         <v>151200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>144600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>108200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>98700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>94600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>95100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>64600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>103800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>113000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>75900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>88100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>92600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>95900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>90900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>88800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>83400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>79400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>75600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2988,49 +3093,52 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>8300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>39400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>46700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>101200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>101600</v>
-      </c>
-      <c r="T47" s="3">
-        <v>101400</v>
       </c>
       <c r="U47" s="3">
         <v>101400</v>
       </c>
       <c r="V47" s="3">
+        <v>101400</v>
+      </c>
+      <c r="W47" s="3">
         <v>102400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,64 +3146,67 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>28900</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>28900</v>
       </c>
       <c r="G48" s="3">
+        <v>28900</v>
+      </c>
+      <c r="H48" s="3">
         <v>27700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>26700</v>
       </c>
       <c r="I48" s="3">
         <v>26700</v>
       </c>
       <c r="J48" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K48" s="3">
         <v>50900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>51000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>52500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>53600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>70100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>97300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>95600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>99800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>95200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>92900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>90200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>87800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>86500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3336,8 +3456,8 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>150800</v>
+      </c>
+      <c r="E54" s="3">
         <v>151400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>173500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>137100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>126400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>121200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>121800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>123800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>160000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>167400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>178000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>171400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>224800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>231000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>242400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>287300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>283200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>274900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>268500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>264500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>277500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3549,10 +3680,10 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>2300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2200</v>
       </c>
       <c r="I57" s="3">
         <v>2200</v>
@@ -3567,105 +3698,111 @@
         <v>2200</v>
       </c>
       <c r="M57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N57" s="3">
         <v>6300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>3200</v>
       </c>
       <c r="R57" s="3">
         <v>3200</v>
       </c>
       <c r="S57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T57" s="3">
         <v>2700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E58" s="3">
         <v>8400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>24900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>46900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>48300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>49300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>48400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>48300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>50200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>52800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>50800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>50000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>48700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>48400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>48300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,129 +3810,135 @@
         <v>3500</v>
       </c>
       <c r="E59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F59" s="3">
         <v>13700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>26100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E60" s="3">
         <v>12000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>76100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>76400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>81700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>76700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>72600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>70100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>70900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>66300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>61900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>57700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>55300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>52900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3809,7 +3952,7 @@
         <v>800</v>
       </c>
       <c r="G61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H61" s="3">
         <v>700</v>
@@ -3818,25 +3961,25 @@
         <v>700</v>
       </c>
       <c r="J61" s="3">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="K61" s="3">
         <v>2300</v>
       </c>
       <c r="L61" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="M61" s="3">
         <v>2500</v>
       </c>
       <c r="N61" s="3">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="O61" s="3">
         <v>1000</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3848,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>300</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3874,7 +4020,7 @@
         <v>5200</v>
       </c>
       <c r="G62" s="3">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="H62" s="3">
         <v>5800</v>
@@ -3883,49 +4029,52 @@
         <v>5800</v>
       </c>
       <c r="J62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K62" s="3">
         <v>6700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10100</v>
-      </c>
-      <c r="V62" s="3">
-        <v>9900</v>
       </c>
       <c r="W62" s="3">
         <v>9900</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E66" s="3">
         <v>18000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>44600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>42200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>44600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>85600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>91700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>84700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>81400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>79000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>80600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>82500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>72000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>68000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>65500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>62900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-28100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-27900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-34500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>38800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>41300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>42700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>91300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>101000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>101100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>100700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>100300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>134100</v>
+      </c>
+      <c r="E76" s="3">
         <v>133400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>129000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>92200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>83000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>79100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>77200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>78600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>74400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>80800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>86300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>86700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>143300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>152000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>161800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>204800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>211200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>206900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>203000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>201600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>210600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-61900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9700</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>400</v>
       </c>
       <c r="V81" s="3">
+        <v>400</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5051,11 +5250,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>27000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>39700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5705,20 +5935,20 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5729,14 +5959,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5757,10 +5987,13 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,50 +6287,53 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>4300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>38300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>-21800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>5300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6098,145 +6344,154 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-600</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-100</v>
       </c>
       <c r="V100" s="3">
         <v>-100</v>
       </c>
       <c r="W100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X100" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>2500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>6900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>36300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>34000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-37000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>CREG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,115 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,11 +783,11 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -788,38 +799,38 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>2800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>1400</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -829,8 +840,17 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -891,14 +911,23 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -959,14 +988,23 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1029,11 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1100,17 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,58 +1177,67 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
         <v>-3200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="R14" s="3">
         <v>28400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1186,17 +1245,26 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1331,17 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1363,88 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>-3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>-4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>-1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>10000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>58200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>-100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>-1500</v>
-      </c>
-      <c r="U17" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="V17" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="W17" s="3">
-        <v>-600</v>
       </c>
       <c r="X17" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1452,76 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-9300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-57300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>1500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>2000</v>
-      </c>
-      <c r="V18" s="3">
-        <v>2000</v>
-      </c>
-      <c r="W18" s="3">
-        <v>600</v>
       </c>
       <c r="X18" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1546,11 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1459,65 +1560,74 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1542,186 +1652,213 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-8800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-4800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-57200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1600</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-1000</v>
       </c>
       <c r="T21" s="3">
         <v>1500</v>
       </c>
       <c r="U21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X21" s="3">
         <v>2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="Y21" s="3">
         <v>2100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Z21" s="3">
         <v>900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="AA21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>2100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>1900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="T22" s="3">
         <v>2900</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1600</v>
-      </c>
-      <c r="T22" s="3">
-        <v>1300</v>
       </c>
       <c r="U22" s="3">
         <v>1400</v>
       </c>
       <c r="V22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X22" s="3">
         <v>1400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z22" s="3">
         <v>2100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="AA22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-11800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-9500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-61900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-2600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>600</v>
-      </c>
-      <c r="V23" s="3">
-        <v>700</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-1200</v>
       </c>
       <c r="X23" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,17 +1866,17 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1747,49 +1884,58 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>-2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>-2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="V24" s="3">
         <v>14700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +2002,171 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-8800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-7200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-64800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-17400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>-1300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="AA26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-8800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-7200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-61900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-17300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>-1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="AA27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2233,17 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,14 +2274,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
@@ -2110,26 +2292,35 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="3">
         <v>7600</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2387,17 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2464,17 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2275,133 +2484,151 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-8800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-7200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-61900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-9700</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>-1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AA33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2695,176 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-8800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-7200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-61900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-9700</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>-1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AA35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2889,11 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2918,88 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>152600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>152000</v>
+      </c>
+      <c r="G41" s="3">
         <v>149500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>151000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>144100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>107800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>73800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>62700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>55000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>16200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>50800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>51500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>57100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>53200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>50900</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>51100</v>
       </c>
       <c r="R41" s="3">
         <v>53200</v>
       </c>
       <c r="S41" s="3">
+        <v>50900</v>
+      </c>
+      <c r="T41" s="3">
+        <v>51100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>53200</v>
+      </c>
+      <c r="V41" s="3">
         <v>49800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>48300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>47000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="Y41" s="3">
         <v>47100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Z41" s="3">
         <v>47800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="AA41" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2771,34 +3040,43 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>10300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="T42" s="3">
         <v>12200</v>
-      </c>
-      <c r="R42" s="3">
-        <v>12600</v>
-      </c>
-      <c r="S42" s="3">
-        <v>13100</v>
-      </c>
-      <c r="T42" s="3">
-        <v>13400</v>
       </c>
       <c r="U42" s="3">
         <v>12600</v>
       </c>
       <c r="V42" s="3">
+        <v>13100</v>
+      </c>
+      <c r="W42" s="3">
+        <v>13400</v>
+      </c>
+      <c r="X42" s="3">
+        <v>12600</v>
+      </c>
+      <c r="Y42" s="3">
         <v>11000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Z42" s="3">
         <v>9400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="AA42" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,67 +3084,76 @@
         <v>1100</v>
       </c>
       <c r="E43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>24900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>31800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>40100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>48300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>49900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>52200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>55900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>22700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>26800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>29100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>29600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="V43" s="3">
         <v>27300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="W43" s="3">
         <v>26800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="X43" s="3">
         <v>23700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="Y43" s="3">
         <v>20900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Z43" s="3">
         <v>17800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="AA43" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3220,17 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2945,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2966,111 +3262,129 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Z45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="AA45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>153700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>153100</v>
+      </c>
+      <c r="G46" s="3">
         <v>150600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>151200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>144600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>108200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>98700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>94600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>95100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>64600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>100800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>103800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>113000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>75900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>88100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>92600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>95900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>90900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>88800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>83400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="Y46" s="3">
         <v>79400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Z46" s="3">
         <v>75600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="AA46" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3096,117 +3410,135 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>8300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>8200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>11100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>11400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>25500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>39400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="T47" s="3">
         <v>42700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="U47" s="3">
         <v>46700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="V47" s="3">
         <v>101200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="W47" s="3">
         <v>101600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="X47" s="3">
         <v>101400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="Y47" s="3">
         <v>101400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Z47" s="3">
         <v>102400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="AA47" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>28900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>28900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>27700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>26700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>26700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>50900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>51000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>52500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>53600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>70100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>97300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>95600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>99800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>95200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="W48" s="3">
         <v>92900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="X48" s="3">
         <v>90200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="Y48" s="3">
         <v>87800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Z48" s="3">
         <v>86500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="AA48" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3605,17 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3682,17 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3759,17 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3459,14 +3818,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
@@ -3477,8 +3836,17 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3913,94 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>145500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>153900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>153300</v>
+      </c>
+      <c r="G54" s="3">
         <v>150800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>151400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>173500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>137100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>126400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>121200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>121800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>123800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>160000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>167400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>178000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>171400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>224800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>231000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>242400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>287300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>283200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>274900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Y54" s="3">
         <v>268500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Z54" s="3">
         <v>264500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AA54" s="3">
         <v>277500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +4025,11 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +4054,11 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3683,16 +4075,16 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2200</v>
       </c>
       <c r="L57" s="3">
         <v>2200</v>
@@ -3701,380 +4093,434 @@
         <v>2200</v>
       </c>
       <c r="N57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>6300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>5600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>6400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>3600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>3200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>3200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>2700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="X57" s="3">
         <v>2200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="Y57" s="3">
         <v>1900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Z57" s="3">
         <v>1500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="AA57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>18800</v>
+      </c>
+      <c r="G58" s="3">
         <v>7100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>8400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>24800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>24900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>21600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>21100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>21300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>20500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>46900</v>
-      </c>
-      <c r="M58" s="3">
-        <v>48300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>49300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>48400</v>
       </c>
       <c r="P58" s="3">
         <v>48300</v>
       </c>
       <c r="Q58" s="3">
+        <v>49300</v>
+      </c>
+      <c r="R58" s="3">
+        <v>48400</v>
+      </c>
+      <c r="S58" s="3">
+        <v>48300</v>
+      </c>
+      <c r="T58" s="3">
         <v>50200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>52800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>50800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="W58" s="3">
         <v>50000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="X58" s="3">
         <v>48700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="Y58" s="3">
         <v>48400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Z58" s="3">
         <v>48300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="AA58" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>13700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>14100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>13100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>12400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>14600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>13600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>27000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>25900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>26100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>22800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>17900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>16300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>14900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>12200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>9200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>6800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="Y59" s="3">
         <v>5000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Z59" s="3">
         <v>4500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="AA59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>23900</v>
+      </c>
+      <c r="G60" s="3">
         <v>10700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>12000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>38600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>39000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>36900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>35700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>38100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>36300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>76100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>76400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>81700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>76700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>72600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>70100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>70900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>66300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>61900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>57700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>55300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>52900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>800</v>
       </c>
       <c r="H61" s="3">
+        <v>800</v>
+      </c>
+      <c r="I61" s="3">
+        <v>800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>800</v>
+      </c>
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>2300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>2300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>2500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>2500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>1000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="E62" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="F62" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="G62" s="3">
         <v>5200</v>
       </c>
       <c r="H62" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K62" s="3">
         <v>5800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>5800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>5800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>6700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>7300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>7700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>7500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>10500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>8600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>9600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>10200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="V62" s="3">
         <v>16700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="W62" s="3">
         <v>10500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="X62" s="3">
         <v>10300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="Y62" s="3">
         <v>10100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Z62" s="3">
         <v>9900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="AA62" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4587,17 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4664,17 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4741,94 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>28500</v>
+      </c>
+      <c r="G66" s="3">
         <v>16700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>18000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>44600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>45000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>43500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>42200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>44600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>45200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>85600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>86600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>91700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>84700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>81400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>79000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>80600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>82500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>72000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>68000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>65500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>62900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4853,11 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4924,17 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +5001,17 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +5078,17 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +5155,94 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-26500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-25900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-28100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-27900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-32200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-31500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-32500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-31900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-34500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-30400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-25100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-23100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>38800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>41300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>42700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>91300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>101000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>101100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>100700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>100300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5309,17 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5386,17 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5463,94 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>126900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>124800</v>
+      </c>
+      <c r="G76" s="3">
         <v>134100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>133400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>129000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>92200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>83000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>79100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>77200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>78600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>74400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>80800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>86300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>86700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>143300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>152000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>161800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>204800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>211200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>206900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>203000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>201600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>210600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5617,176 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-8800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-7200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-61900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-9700</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>-1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="AA81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5811,11 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5253,8 +5849,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5262,8 +5858,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5286,8 +5882,17 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5959,17 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +6036,17 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +6113,17 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +6190,17 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6267,94 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>27000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>8200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>7300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>39700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-14600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-7000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-3300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="Y89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Z89" s="3">
         <v>9100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="AA89" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6379,11 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6450,17 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6527,17 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6604,17 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5938,44 +6627,44 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5990,10 +6679,19 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6716,11 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6787,17 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6864,17 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6941,17 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +7018,17 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,199 +7036,226 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>4300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>38300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>-21800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>5300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>3600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>2700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="AA100" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>700</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="H101" s="3">
         <v>2500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>2400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>-1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="S101" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="U101" s="3">
         <v>2100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="V101" s="3">
         <v>900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="X101" s="3">
         <v>900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Z101" s="3">
         <v>-1900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="AA101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>6900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>36300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>34000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>11100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>7600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>38800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-37000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>3900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R102" s="3">
-        <v>3400</v>
-      </c>
-      <c r="S102" s="3">
-        <v>1500</v>
       </c>
       <c r="T102" s="3">
         <v>1300</v>
       </c>
       <c r="U102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="V102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="Y102" s="3">
         <v>-700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Z102" s="3">
         <v>7100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="AA102" s="3">
         <v>-2100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>CREG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,136 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -808,32 +812,32 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1400</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -920,14 +927,17 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -997,14 +1007,17 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,61 +1215,61 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-3200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
-      </c>
-      <c r="L14" s="3">
-        <v>100</v>
       </c>
       <c r="M14" s="3">
         <v>100</v>
       </c>
       <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>28400</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,153 +1402,159 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>58200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>-100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>-1500</v>
-      </c>
-      <c r="X17" s="3">
-        <v>-2000</v>
       </c>
       <c r="Y17" s="3">
         <v>-2000</v>
       </c>
       <c r="Z17" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AA17" s="3">
         <v>-600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-57300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1500</v>
-      </c>
-      <c r="X18" s="3">
-        <v>2000</v>
       </c>
       <c r="Y18" s="3">
         <v>2000</v>
       </c>
       <c r="Z18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA18" s="3">
         <v>600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,34 +1582,35 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1585,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
@@ -1609,7 +1643,7 @@
         <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1621,13 +1655,16 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1661,204 +1698,213 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-8800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-57200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>1900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1300</v>
-      </c>
-      <c r="X22" s="3">
-        <v>1400</v>
       </c>
       <c r="Y22" s="3">
         <v>1400</v>
       </c>
       <c r="Z22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA22" s="3">
         <v>2100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-61900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1875,11 +1921,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1893,34 +1939,34 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-500</v>
-      </c>
-      <c r="T24" s="3">
-        <v>300</v>
       </c>
       <c r="U24" s="3">
         <v>300</v>
       </c>
       <c r="V24" s="3">
+        <v>300</v>
+      </c>
+      <c r="W24" s="3">
         <v>14700</v>
-      </c>
-      <c r="W24" s="3">
-        <v>400</v>
       </c>
       <c r="X24" s="3">
         <v>400</v>
@@ -1929,13 +1975,16 @@
         <v>400</v>
       </c>
       <c r="Z24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-64800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-17400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>300</v>
       </c>
       <c r="Y26" s="3">
         <v>300</v>
       </c>
       <c r="Z26" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-61900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-17300</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
         <v>400</v>
       </c>
       <c r="Z27" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,8 +2344,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
@@ -2301,12 +2362,12 @@
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" s="3">
         <v>7600</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,34 +2540,37 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2509,19 +2579,19 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
@@ -2533,7 +2603,7 @@
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2545,90 +2615,96 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-61900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9700</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
         <v>400</v>
       </c>
       <c r="Z33" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-61900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9700</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
         <v>400</v>
       </c>
       <c r="Z35" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>136200</v>
+      </c>
+      <c r="E41" s="3">
         <v>144200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>152600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>152000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>149500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>151000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>144100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>107800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>73800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>62700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>50800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>51500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>57100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>53200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>50900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>51100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>53200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>49800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>48300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>47000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>47100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>47800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3049,39 +3139,42 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>10300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>12200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>13100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>13400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>12600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>11000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>9400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
         <v>1100</v>
@@ -3093,67 +3186,70 @@
         <v>1100</v>
       </c>
       <c r="H43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>31800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>40100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>48300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>49900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>52200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>55900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>22700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>26800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>29100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>29600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>27300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>26800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>23700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>20900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>17800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3250,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -3271,7 +3370,7 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3283,108 +3382,114 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E46" s="3">
         <v>145300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>153700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>153100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>150600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>151200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>144600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>108200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>98700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>94600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>95100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>64600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>103800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>113000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>75900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>88100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>92600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>95900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>90900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>88800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>83400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>79400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>75600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3419,49 +3524,52 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>8300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>39400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>42700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>46700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>101200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>101600</v>
-      </c>
-      <c r="X47" s="3">
-        <v>101400</v>
       </c>
       <c r="Y47" s="3">
         <v>101400</v>
       </c>
       <c r="Z47" s="3">
+        <v>101400</v>
+      </c>
+      <c r="AA47" s="3">
         <v>102400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3475,70 +3583,73 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>28900</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>28900</v>
       </c>
       <c r="K48" s="3">
+        <v>28900</v>
+      </c>
+      <c r="L48" s="3">
         <v>27700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>26700</v>
       </c>
       <c r="M48" s="3">
         <v>26700</v>
       </c>
       <c r="N48" s="3">
+        <v>26700</v>
+      </c>
+      <c r="O48" s="3">
         <v>50900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>51000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>52500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>53600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>70100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>97300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>95600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>99800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>95200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>92900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>90200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>87800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>86500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3827,8 +3947,8 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E54" s="3">
         <v>145500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>153900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>153300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>150800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>151400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>173500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>137100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>126400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>121200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>123800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>160000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>167400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>178000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>171400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>224800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>231000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>242400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>287300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>283200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>274900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>268500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>264500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>277500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4084,10 +4215,10 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>2300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2200</v>
       </c>
       <c r="M57" s="3">
         <v>2200</v>
@@ -4102,117 +4233,123 @@
         <v>2200</v>
       </c>
       <c r="Q57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R57" s="3">
         <v>6300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3600</v>
-      </c>
-      <c r="U57" s="3">
-        <v>3200</v>
       </c>
       <c r="V57" s="3">
         <v>3200</v>
       </c>
       <c r="W57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="X57" s="3">
         <v>2700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E58" s="3">
         <v>16900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>17500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>24800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>24900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>46900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>48300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>49300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>48400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>48300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>50200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>52800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>50800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>50000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>48700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>48400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>48300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4220,153 +4357,159 @@
         <v>4700</v>
       </c>
       <c r="E59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>3500</v>
       </c>
       <c r="H59" s="3">
         <v>3500</v>
       </c>
       <c r="I59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J59" s="3">
         <v>13700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>25900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>26100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E60" s="3">
         <v>21700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>39000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>76100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>76400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>81700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>76700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>72600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>70100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>70900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>66300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>61900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>57700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>55300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>52900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4380,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>800</v>
@@ -4392,7 +4535,7 @@
         <v>800</v>
       </c>
       <c r="K61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L61" s="3">
         <v>700</v>
@@ -4401,25 +4544,25 @@
         <v>700</v>
       </c>
       <c r="N61" s="3">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="O61" s="3">
         <v>2300</v>
       </c>
       <c r="P61" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="Q61" s="3">
         <v>2500</v>
       </c>
       <c r="R61" s="3">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="S61" s="3">
         <v>1000</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -4431,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>300</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4457,7 +4603,7 @@
         <v>4600</v>
       </c>
       <c r="G62" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="H62" s="3">
         <v>5200</v>
@@ -4469,7 +4615,7 @@
         <v>5200</v>
       </c>
       <c r="K62" s="3">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="L62" s="3">
         <v>5800</v>
@@ -4478,49 +4624,52 @@
         <v>5800</v>
       </c>
       <c r="N62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O62" s="3">
         <v>6700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10100</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>9900</v>
       </c>
       <c r="AA62" s="3">
         <v>9900</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E66" s="3">
         <v>26300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>28500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>44600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>42200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>85600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>86600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>91700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>84700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>81400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>79000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>80600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>82500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>72000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>68000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>65500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>62900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-40800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-40500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-40100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-26500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-25900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-28100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-27900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-34500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-30400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-25100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>38800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>41300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>42700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>91300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>101000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>101100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>100700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>100300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E76" s="3">
         <v>119200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>126900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>124800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>134100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>133400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>129000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>92200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>83000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>79100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>77200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>78600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>74400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>80800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>86300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>86700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>143300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>152000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>161800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>204800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>211200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>206900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>203000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>201600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>210600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-61900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9700</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
         <v>400</v>
       </c>
       <c r="Z81" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5858,11 +6057,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,76 +6502,79 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>39700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>9100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6636,20 +6866,20 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6660,14 +6890,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6688,10 +6918,13 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7045,44 +7291,44 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>4300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>38300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>-21800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>5300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -7093,169 +7339,178 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>-100</v>
       </c>
       <c r="Z100" s="3">
         <v>-100</v>
       </c>
       <c r="AA100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>36300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>34000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-37000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>7100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>CREG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,142 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -815,32 +818,32 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
@@ -856,8 +859,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -930,14 +936,17 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,14 +1019,17 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,73 +1222,76 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-3200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
-      </c>
-      <c r="M14" s="3">
-        <v>100</v>
       </c>
       <c r="N14" s="3">
         <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>28400</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
@@ -1280,14 +1299,17 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
         <v>200</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>3300</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>58200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>-100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>-2000</v>
       </c>
       <c r="Z17" s="3">
         <v>-2000</v>
       </c>
       <c r="AA17" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AB17" s="3">
         <v>-600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-57300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1500</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>2000</v>
       </c>
       <c r="Z18" s="3">
         <v>2000</v>
       </c>
       <c r="AA18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB18" s="3">
         <v>600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,37 +1615,38 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1622,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
@@ -1646,7 +1679,7 @@
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1658,13 +1691,16 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1701,210 +1737,219 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-8800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-4800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-57200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>1900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>1400</v>
       </c>
       <c r="Z22" s="3">
         <v>1400</v>
       </c>
       <c r="AA22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB22" s="3">
         <v>2100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-61900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1924,11 +1969,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1942,34 +1987,34 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-500</v>
-      </c>
-      <c r="U24" s="3">
-        <v>300</v>
       </c>
       <c r="V24" s="3">
         <v>300</v>
       </c>
       <c r="W24" s="3">
+        <v>300</v>
+      </c>
+      <c r="X24" s="3">
         <v>14700</v>
-      </c>
-      <c r="X24" s="3">
-        <v>400</v>
       </c>
       <c r="Y24" s="3">
         <v>400</v>
@@ -1978,13 +2023,16 @@
         <v>400</v>
       </c>
       <c r="AA24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-64800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-17400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>300</v>
       </c>
       <c r="Z26" s="3">
         <v>300</v>
       </c>
       <c r="AA26" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-61900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-17300</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
         <v>400</v>
       </c>
       <c r="AA27" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,8 +2407,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
@@ -2365,12 +2425,12 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29" s="3">
         <v>7600</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,37 +2609,40 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2582,19 +2651,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
@@ -2606,7 +2675,7 @@
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2618,93 +2687,99 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-61900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9700</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="3">
         <v>400</v>
       </c>
       <c r="AA33" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-61900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9700</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
         <v>400</v>
       </c>
       <c r="AA35" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E41" s="3">
         <v>136200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>152600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>152000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>149500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>151000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>144100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>107800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>73800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>62700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>55000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>50800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>51500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>57100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>53200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>50900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>51100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>53200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>49800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>48300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>47000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>47100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>47800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3142,42 +3231,45 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>10300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>12600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>13100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>13400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>12600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>11000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>9400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1100</v>
       </c>
       <c r="F43" s="3">
         <v>1100</v>
@@ -3189,67 +3281,70 @@
         <v>1100</v>
       </c>
       <c r="I43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>40100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>48300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>49900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>52200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>55900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>22700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>26800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>29100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>29600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>27300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>26800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>23700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>20900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>17800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,13 +3423,16 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3352,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -3373,7 +3471,7 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3385,111 +3483,117 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E46" s="3">
         <v>137300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>145300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>153700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>153100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>150600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>151200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>144600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>108200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>98700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>94600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>95100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>64600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>103800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>113000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>75900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>88100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>92600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>95900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>90900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>88800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>83400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>79400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>75600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3527,54 +3631,57 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>8300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>39400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>42700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>46700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>101200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>101600</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>101400</v>
       </c>
       <c r="Z47" s="3">
         <v>101400</v>
       </c>
       <c r="AA47" s="3">
+        <v>101400</v>
+      </c>
+      <c r="AB47" s="3">
         <v>102400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -3586,70 +3693,73 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>28900</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>28900</v>
       </c>
       <c r="L48" s="3">
+        <v>28900</v>
+      </c>
+      <c r="M48" s="3">
         <v>27700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>26700</v>
       </c>
       <c r="N48" s="3">
         <v>26700</v>
       </c>
       <c r="O48" s="3">
+        <v>26700</v>
+      </c>
+      <c r="P48" s="3">
         <v>50900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>51000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>52500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>53600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>70100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>97300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>95600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>99800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>95200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>92900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>90200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>87800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>86500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3950,8 +4069,8 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E54" s="3">
         <v>137400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>145500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>153900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>153300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>150800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>151400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>173500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>137100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>126400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>121800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>123800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>160000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>167400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>178000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>171400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>224800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>231000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>242400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>287300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>283200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>274900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>268500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>264500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>277500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4218,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>2300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2200</v>
       </c>
       <c r="N57" s="3">
         <v>2200</v>
@@ -4236,280 +4366,292 @@
         <v>2200</v>
       </c>
       <c r="R57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S57" s="3">
         <v>6300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3600</v>
-      </c>
-      <c r="V57" s="3">
-        <v>3200</v>
       </c>
       <c r="W57" s="3">
         <v>3200</v>
       </c>
       <c r="X57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>2700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E58" s="3">
         <v>16500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>24800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>20500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>46900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>48300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>49300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>48400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>48300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>50200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>52800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>50800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>50000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>48700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>48400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>48300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4700</v>
+        <v>7600</v>
       </c>
       <c r="E59" s="3">
         <v>4700</v>
       </c>
       <c r="F59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>3500</v>
       </c>
       <c r="I59" s="3">
         <v>3500</v>
       </c>
       <c r="J59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K59" s="3">
         <v>13700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>27000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>25900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>26100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E60" s="3">
         <v>21300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>76100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>76400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>81700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>76700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>72600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>70100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>70900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>66300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>61900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>57700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>55300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>52900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4526,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>800</v>
@@ -4538,7 +4680,7 @@
         <v>800</v>
       </c>
       <c r="L61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M61" s="3">
         <v>700</v>
@@ -4547,25 +4689,25 @@
         <v>700</v>
       </c>
       <c r="O61" s="3">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="P61" s="3">
         <v>2300</v>
       </c>
       <c r="Q61" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="R61" s="3">
         <v>2500</v>
       </c>
       <c r="S61" s="3">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T61" s="3">
         <v>1000</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -4577,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>300</v>
@@ -4588,13 +4730,16 @@
       <c r="AB61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="E62" s="3">
         <v>4600</v>
@@ -4606,7 +4751,7 @@
         <v>4600</v>
       </c>
       <c r="H62" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="I62" s="3">
         <v>5200</v>
@@ -4618,7 +4763,7 @@
         <v>5200</v>
       </c>
       <c r="L62" s="3">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="M62" s="3">
         <v>5800</v>
@@ -4627,49 +4772,52 @@
         <v>5800</v>
       </c>
       <c r="O62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="P62" s="3">
         <v>6700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10100</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>9900</v>
       </c>
       <c r="AB62" s="3">
         <v>9900</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E66" s="3">
         <v>25900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>44600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>45200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>85600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>91700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>84700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>81400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>79000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>80600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>82500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>72000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>68000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>65500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>62900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-41200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-40800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-40500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-40100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-26500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-28100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-30400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-25100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>38800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>41300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>42700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>91300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>101000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>101100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>100700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>100300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E76" s="3">
         <v>111500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>119200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>126900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>124800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>134100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>133400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>129000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>92200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>83000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>79100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>77200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>78600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>74400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>80800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>86300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>86700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>143300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>152000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>161800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>204800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>211200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>206900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>203000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>201600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>210600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-61900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9700</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="3">
         <v>400</v>
       </c>
       <c r="AA81" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6060,11 +6258,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>39700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>9100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,46 +7069,49 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6893,14 +7122,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6921,10 +7150,13 @@
         <v>0</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7294,44 +7539,44 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>38300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>-21800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>5300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -7342,175 +7587,184 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>-100</v>
       </c>
       <c r="AA100" s="3">
         <v>-100</v>
       </c>
       <c r="AB100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>36300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>38800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-37000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>7100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>CREG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -790,23 +798,23 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -821,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -830,26 +838,26 @@
         <v>700</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>700</v>
+      </c>
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1400</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
       <c r="Z8" s="3">
         <v>0</v>
       </c>
@@ -862,8 +870,14 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -939,14 +953,20 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1022,14 +1042,20 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,91 +1259,103 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
       </c>
       <c r="J14" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
         <v>-3200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>28400</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3">
         <v>200</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,91 +1471,99 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>11700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>-4600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>-1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>10000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>58200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>-100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>-2000</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>-600</v>
       </c>
       <c r="AC17" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,82 +1571,88 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-57300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>1500</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-1100</v>
       </c>
       <c r="Y18" s="3">
         <v>1500</v>
       </c>
       <c r="Z18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB18" s="3">
         <v>2000</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>2000</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>600</v>
       </c>
       <c r="AC18" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1627,53 +1695,53 @@
       <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+      <c r="F20" s="3">
+        <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
         <v>100</v>
       </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
@@ -1682,10 +1750,10 @@
         <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
@@ -1694,13 +1762,19 @@
         <v>0</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1740,50 +1814,56 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-4800</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-57200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>2000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>2100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1791,170 +1871,182 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1900</v>
       </c>
       <c r="T22" s="3">
         <v>4700</v>
       </c>
       <c r="U22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="W22" s="3">
         <v>1100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>2900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>1400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>1600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>1300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>1400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>1400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>2100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-13600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-9500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-4300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-61900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1972,14 +2064,14 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1990,49 +2082,55 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-2300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-2400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>2900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>14700</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>400</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>400</v>
       </c>
       <c r="AA24" s="3">
         <v>400</v>
       </c>
       <c r="AB24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AC24" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-13600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-64800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-17400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-13600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-4100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-61900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2410,11 +2532,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
@@ -2428,15 +2550,15 @@
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="3">
         <v>7600</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,53 +2763,53 @@
       <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+      <c r="F32" s="3">
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
         <v>-100</v>
       </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
@@ -2678,10 +2818,10 @@
         <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
@@ -2690,96 +2830,108 @@
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-13600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-4100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-7200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-61900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-13600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-4100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-7200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-61900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3266,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>138800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>136200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>144200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>152600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>152000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>149500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>151000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>144100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>107800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>73800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>62700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>55000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>16200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>50800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>51500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>57100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>53200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>50900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>51100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>53200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>49800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>48300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>47000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>47100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>47800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3234,48 +3414,54 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>10300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>12200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>12600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>13100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>13400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>12600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>11000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>9400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>140800</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1100</v>
       </c>
       <c r="H43" s="3">
         <v>1100</v>
@@ -3284,67 +3470,73 @@
         <v>1100</v>
       </c>
       <c r="J43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>24900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>31800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>40100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>48300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>49900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>52200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>55900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>22700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>26800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>29100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>29600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>27300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>26800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>23700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>20900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>17800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,19 +3618,25 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3453,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -3474,10 +3672,10 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3486,122 +3684,134 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>140900</v>
+      </c>
+      <c r="F46" s="3">
         <v>139100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>137300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>145300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>153700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>153100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>150600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>151200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>144600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>108200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>98700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>94600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>95100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>64600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>100800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>103800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>113000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>75900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>88100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>92600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>95900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>90900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>88800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>83400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>79400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>75600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3634,49 +3844,55 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>8300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>8200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>11100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>11400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>25500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>39400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>42700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>46700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>101200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>101600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>101400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>101400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>102400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3684,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3696,70 +3912,76 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>28900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>28900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>27700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>26700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>26700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>50900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>51000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>52500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>53600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>70100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>97300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>95600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>99800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>95200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>92900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>90200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>87800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>86500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4072,11 +4312,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>4</v>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>140900</v>
+      </c>
+      <c r="F54" s="3">
         <v>139100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>137400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>145500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>153900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>153300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>150800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>151400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>173500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>137100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>126400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>121200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>121800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>123800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>160000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>167400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>178000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>171400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>224800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>231000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>242400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>287300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>283200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>274900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>268500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>264500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>277500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4578,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4351,13 +4613,13 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>2300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2200</v>
       </c>
       <c r="P57" s="3">
         <v>2200</v>
@@ -4369,289 +4631,313 @@
         <v>2200</v>
       </c>
       <c r="S57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U57" s="3">
         <v>6300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>5600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>6400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>3200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>3200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>2200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>1500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E58" s="3">
         <v>16800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G58" s="3">
         <v>16500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>16900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>17500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>18800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>8400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>24800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>24900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>21600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>21100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>21300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>20500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>46900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>48300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>49300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>48400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>48300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>50200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>52800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>50800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>50000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>48700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>48400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>48300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F59" s="3">
         <v>7600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>13700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>14100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>13100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>12400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>14600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>13600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>27000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>25900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>26100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>22800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>17900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>16300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>14900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>12200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>9200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>6800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>5000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>4500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F60" s="3">
         <v>24400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>21300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>21700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>22300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>23900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>12000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>38600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>39000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>36900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>35700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>38100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>36300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>76100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>76400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>81700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>76700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>72600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>70100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>70900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>66300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>61900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>57700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>55300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>52900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4671,10 +4957,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>800</v>
@@ -4683,38 +4969,38 @@
         <v>800</v>
       </c>
       <c r="M61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O61" s="3">
         <v>700</v>
       </c>
       <c r="P61" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>700</v>
+      </c>
+      <c r="R61" s="3">
         <v>2300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4722,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="Z61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="3">
         <v>300</v>
@@ -4733,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4742,10 +5034,10 @@
         <v>4000</v>
       </c>
       <c r="E62" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="F62" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="G62" s="3">
         <v>4600</v>
@@ -4754,10 +5046,10 @@
         <v>4600</v>
       </c>
       <c r="I62" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="J62" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="K62" s="3">
         <v>5200</v>
@@ -4766,58 +5058,64 @@
         <v>5200</v>
       </c>
       <c r="M62" s="3">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="N62" s="3">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="O62" s="3">
         <v>5800</v>
       </c>
       <c r="P62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="R62" s="3">
         <v>6700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>7300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>7700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>7500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>10500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>8600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>9600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>10200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>16700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>10500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>10300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>10100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>9900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>28100</v>
+      </c>
+      <c r="F66" s="3">
         <v>28300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>25900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>26300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>26900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>28500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>16700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>44600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>45000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>43500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>42200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>44600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>45200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>85600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>86600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>91700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>84700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>81400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>79000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>80600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>82500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>72000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>68000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>65500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>62900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-41200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-40800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-40500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-40100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-26500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-25900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-28100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-27900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-32200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-31500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-32500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-31900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-34500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-30400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-25100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-23100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>38800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>41300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>42700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>91300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>101000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>101100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>100700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>100300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>106700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>112900</v>
+      </c>
+      <c r="F76" s="3">
         <v>110800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>111500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>119200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>126900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>124800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>134100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>133400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>129000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>92200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>83000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>79100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>77200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>78600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>74400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>80800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>86300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>86700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>143300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>152000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>161800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>204800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>211200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>206900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>203000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>201600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>210600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-13600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-4100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-7200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-61900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6261,14 +6659,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-69000</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>27000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>8200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>7300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>39700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-7000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-3300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>9100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,52 +7526,58 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>71100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+        <v>-141100</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -7125,17 +7585,17 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -7153,10 +7613,16 @@
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,16 +8004,22 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -7542,47 +8034,47 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>4300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>38300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>-21800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>5300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>3600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>2700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7590,181 +8082,199 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F101" s="3">
         <v>2600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-7900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-8300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
-      </c>
-      <c r="H101" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-600</v>
       </c>
       <c r="J101" s="3">
         <v>2500</v>
       </c>
       <c r="K101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-2800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>2100</v>
-      </c>
-      <c r="X101" s="3">
-        <v>900</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>1000</v>
       </c>
       <c r="Z101" s="3">
         <v>900</v>
       </c>
       <c r="AA101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC101" s="3">
         <v>300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-138800</v>
+      </c>
+      <c r="F102" s="3">
         <v>2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-8400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>36300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>34000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>11100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>7600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>38800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>3900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>3400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>1500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>1300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>7100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-2100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CREG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>CREG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -813,11 +817,11 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -835,32 +839,32 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1400</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
       <c r="AA8" s="3">
         <v>0</v>
       </c>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -959,14 +966,17 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1048,14 +1058,17 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1277,70 +1297,70 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-3200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
-      </c>
-      <c r="P14" s="3">
-        <v>100</v>
       </c>
       <c r="Q14" s="3">
         <v>100</v>
       </c>
       <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>28400</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
@@ -1348,14 +1368,17 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3">
         <v>200</v>
       </c>
-      <c r="AE14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,97 +1499,101 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-3000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-4600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>58200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>-100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>-1500</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>-2000</v>
       </c>
       <c r="AC17" s="3">
         <v>-2000</v>
       </c>
       <c r="AD17" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AE17" s="3">
         <v>-600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,88 +1601,91 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-57300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1500</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>2000</v>
       </c>
       <c r="AC18" s="3">
         <v>2000</v>
       </c>
       <c r="AD18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AE18" s="3">
         <v>600</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1693,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1705,25 +1739,25 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1732,19 +1766,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
-      </c>
-      <c r="V20" s="3">
-        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
@@ -1756,7 +1790,7 @@
         <v>100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
@@ -1768,13 +1802,16 @@
         <v>0</v>
       </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>300</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1820,50 +1857,53 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-8800</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-4800</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-57200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>900</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1877,180 +1917,186 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>1900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1300</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>1400</v>
       </c>
       <c r="AC22" s="3">
         <v>1400</v>
       </c>
       <c r="AD22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AE22" s="3">
         <v>2100</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-61900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -2070,11 +2116,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -2088,34 +2134,34 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-2400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-500</v>
-      </c>
-      <c r="X24" s="3">
-        <v>300</v>
       </c>
       <c r="Y24" s="3">
         <v>300</v>
       </c>
       <c r="Z24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA24" s="3">
         <v>14700</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>400</v>
       </c>
       <c r="AB24" s="3">
         <v>400</v>
@@ -2124,13 +2170,16 @@
         <v>400</v>
       </c>
       <c r="AD24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-64800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-17400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>300</v>
       </c>
       <c r="AC26" s="3">
         <v>300</v>
       </c>
       <c r="AD26" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-61900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-17300</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="3">
         <v>400</v>
       </c>
       <c r="AD27" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-1200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2538,8 +2599,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
@@ -2556,12 +2617,12 @@
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="3">
         <v>7600</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2761,7 +2831,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -2773,25 +2843,25 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2800,19 +2870,19 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
@@ -2824,7 +2894,7 @@
         <v>-100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
@@ -2836,102 +2906,108 @@
         <v>0</v>
       </c>
       <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>-300</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-61900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="3">
         <v>400</v>
       </c>
       <c r="AD33" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-61900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="3">
         <v>400</v>
       </c>
       <c r="AD35" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>138800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>136200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>144200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>152600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>152000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>149500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>151000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>144100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>107800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>73800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>62700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>55000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>50800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>51500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>57100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>53200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>50900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>51100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>53200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>49800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>48300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>47000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>47100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>47800</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3420,51 +3510,54 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>10300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>12200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>12600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>13100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>13400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>12600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>11000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>9400</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>67300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>140800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1100</v>
       </c>
       <c r="I43" s="3">
         <v>1100</v>
@@ -3476,67 +3569,70 @@
         <v>1100</v>
       </c>
       <c r="L43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>31800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>40100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>48300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>49900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>52200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>55900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>22700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>26800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>29100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>29600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>27300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>26800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>23700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>20900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>17800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,22 +3720,25 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E45" s="3">
         <v>66100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3657,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -3678,7 +3777,7 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3690,120 +3789,126 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>700</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E46" s="3">
         <v>133900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>140900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>139100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>137300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>145300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>153700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>153100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>150600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>151200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>144600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>108200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>98700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>94600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>95100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>64600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>100800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>103800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>113000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>75900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>88100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>92600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>95900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>90900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>88800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>83400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>79400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>75600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3813,8 +3918,8 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -3850,49 +3955,52 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>8300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>25500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>39400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>42700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>46700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>101200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>101600</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>101400</v>
       </c>
       <c r="AC47" s="3">
         <v>101400</v>
       </c>
       <c r="AD47" s="3">
+        <v>101400</v>
+      </c>
+      <c r="AE47" s="3">
         <v>102400</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3906,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3918,70 +4026,73 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>28900</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>28900</v>
       </c>
       <c r="O48" s="3">
+        <v>28900</v>
+      </c>
+      <c r="P48" s="3">
         <v>27700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>26700</v>
       </c>
       <c r="Q48" s="3">
         <v>26700</v>
       </c>
       <c r="R48" s="3">
+        <v>26700</v>
+      </c>
+      <c r="S48" s="3">
         <v>50900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>51000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>52500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>53600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>70100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>97300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>95600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>99800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>95200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>92900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>90200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>87800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>86500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4318,8 +4438,8 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
+      <c r="Z52" s="3">
+        <v>0</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>4</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E54" s="3">
         <v>133900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>140900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>139100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>137400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>145500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>153900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>153300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>150800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>151400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>173500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>137100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>126400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>121200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>121800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>123800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>160000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>167400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>178000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>171400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>224800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>231000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>242400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>287300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>283200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>274900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>268500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>264500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>277500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4619,10 +4750,10 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>2300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2200</v>
       </c>
       <c r="Q57" s="3">
         <v>2200</v>
@@ -4637,129 +4768,135 @@
         <v>2200</v>
       </c>
       <c r="U57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V57" s="3">
         <v>6300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3600</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>3200</v>
       </c>
       <c r="Z57" s="3">
         <v>3200</v>
       </c>
       <c r="AA57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AB57" s="3">
         <v>2700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E58" s="3">
         <v>16100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>16800</v>
       </c>
       <c r="F58" s="3">
         <v>16800</v>
       </c>
       <c r="G58" s="3">
+        <v>16800</v>
+      </c>
+      <c r="H58" s="3">
         <v>16500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>16900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>17500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>24800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>21100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>21300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>20500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>46900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>48300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>49300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>48400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>48300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>50200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>52800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>50800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>50000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>48700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>48400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>48300</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4767,88 +4904,91 @@
         <v>7200</v>
       </c>
       <c r="E59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F59" s="3">
         <v>7300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>4700</v>
       </c>
       <c r="H59" s="3">
         <v>4700</v>
       </c>
       <c r="I59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J59" s="3">
         <v>4800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>3500</v>
       </c>
       <c r="L59" s="3">
         <v>3500</v>
       </c>
       <c r="M59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N59" s="3">
         <v>13700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>27000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>25900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>26100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>22800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>16300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>14900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>12200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>9200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>6800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>5000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>4500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4856,88 +4996,91 @@
         <v>23300</v>
       </c>
       <c r="E60" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F60" s="3">
         <v>24100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>39000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>36300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>76100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>76400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>81700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>76700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>72600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>70100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>70900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>66300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>61900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>57700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>55300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>52900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4963,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>800</v>
@@ -4975,7 +5118,7 @@
         <v>800</v>
       </c>
       <c r="O61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P61" s="3">
         <v>700</v>
@@ -4984,25 +5127,25 @@
         <v>700</v>
       </c>
       <c r="R61" s="3">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="S61" s="3">
         <v>2300</v>
       </c>
       <c r="T61" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="U61" s="3">
         <v>2500</v>
       </c>
       <c r="V61" s="3">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="W61" s="3">
         <v>1000</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
@@ -5014,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="AB61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="3">
         <v>300</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5040,7 +5186,7 @@
         <v>4000</v>
       </c>
       <c r="G62" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="H62" s="3">
         <v>4600</v>
@@ -5052,7 +5198,7 @@
         <v>4600</v>
       </c>
       <c r="K62" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="L62" s="3">
         <v>5200</v>
@@ -5064,7 +5210,7 @@
         <v>5200</v>
       </c>
       <c r="O62" s="3">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="P62" s="3">
         <v>5800</v>
@@ -5073,49 +5219,52 @@
         <v>5800</v>
       </c>
       <c r="R62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="S62" s="3">
         <v>6700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>16700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>10500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>10300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>10100</v>
-      </c>
-      <c r="AD62" s="3">
-        <v>9900</v>
       </c>
       <c r="AE62" s="3">
         <v>9900</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,8 +5536,11 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5390,88 +5548,91 @@
         <v>27200</v>
       </c>
       <c r="E66" s="3">
+        <v>27200</v>
+      </c>
+      <c r="F66" s="3">
         <v>28100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>28300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>42200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>44600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>45200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>85600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>86600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>91700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>84700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>81400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>79000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>80600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>82500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>72000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>68000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>65500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>62900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44900</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-44600</v>
       </c>
       <c r="F72" s="3">
         <v>-44600</v>
       </c>
       <c r="G72" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-41200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-40800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-40500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-40100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-26500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-27900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-32200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-32500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-31900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-34500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-30400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-25100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>38800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>41300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>42700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>91300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>101000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>101100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>100700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>100300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E76" s="3">
         <v>106700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>112900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>110800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>111500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>119200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>126900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>124800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>134100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>133400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>129000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>92200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>83000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>79100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>77200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>78600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>74400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>80800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>86300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>86700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>143300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>152000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>161800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>204800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>211200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>206900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>203000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>201600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>210600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-61900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AC81" s="3">
         <v>400</v>
       </c>
       <c r="AD81" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6665,11 +6864,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-69000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>27000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-14600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>9100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,20 +7759,23 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
         <v>71100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-141100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7558,29 +7788,29 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -7591,14 +7821,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -7619,10 +7849,13 @@
         <v>0</v>
       </c>
       <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,16 +8253,19 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -8040,44 +8286,44 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>4300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>38300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>-21800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>5300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -8088,193 +8334,202 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-600</v>
-      </c>
-      <c r="AC100" s="3">
-        <v>-100</v>
       </c>
       <c r="AD100" s="3">
         <v>-100</v>
       </c>
       <c r="AE100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF100" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-7900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-1900</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-138800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>36300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>34000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>38800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-37000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>7100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-2100</v>
       </c>
     </row>
